--- a/Rapports/prix carte.xlsx
+++ b/Rapports/prix carte.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
@@ -11,7 +11,7 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -57,9 +57,6 @@
     <t>ALIMJACK</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>FT232</t>
   </si>
   <si>
@@ -99,22 +96,32 @@
     <t>R0,1, 2W</t>
   </si>
   <si>
-    <t>On considère le pris pour 500 et plus</t>
-  </si>
-  <si>
-    <t>ROUTAGE</t>
-  </si>
-  <si>
-    <t>PRIX</t>
+    <t>On considère le prix pour 500 et plus pièces commandées</t>
+  </si>
+  <si>
+    <t>TOTAL Composants</t>
+  </si>
+  <si>
+    <t>Routage et carte</t>
+  </si>
+  <si>
+    <t>TOTAL Solution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -129,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -137,19 +144,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -228,6 +336,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -262,6 +371,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,400 +547,428 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4">
+        <f>PRODUCT(B5,C5)</f>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2">
+        <f>PRODUCT(B6,C6)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <f>PRODUCT(B7,C7)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <f>PRODUCT(B8,C8)</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <f>PRODUCT(B9,C9)</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <f>PRODUCT(B10,C10)</f>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <f>PRODUCT(B11,C11)</f>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <f>PRODUCT(B12,C12)</f>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.01</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <f>PRODUCT(B13,C13)</f>
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <f>PRODUCT(B14,C14)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <f>PRODUCT(B15,C15)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <f>PRODUCT(B16,C16)</f>
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <f>PRODUCT(B17,C17)</f>
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <f>PRODUCT(B18,C18)</f>
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <f>PRODUCT(B19,C19)</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <f>PRODUCT(B20,C20)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <f>PRODUCT(B21,C21)</f>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <f>PRODUCT(B22,C22)</f>
+        <v>0.45599999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <f>PRODUCT(B23,C23)</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <f>PRODUCT(B24,C24)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <f>PRODUCT(B25,C25)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11">
+        <f>SUM(D5:D25)</f>
+        <v>28.678000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="D4">
-        <v>39</v>
-      </c>
-      <c r="G4">
-        <f>PRODUCT(C4,D4)</f>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="H4">
-        <f>SUM(G4:G32)</f>
-        <v>28.678000000000001</v>
-      </c>
-      <c r="I4">
-        <v>12</v>
-      </c>
-      <c r="J4">
-        <f>H4+I4</f>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11">
+        <f>SUM(D27:D28)</f>
         <v>40.677999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G24" si="0">PRODUCT(C5,D5)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>0.15</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>0.22</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>0.36</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>0.15</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>0.76</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>3.01</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>0.3</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>2.54</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>0.73</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>0.26</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>0.5</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>0.49</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>0.152</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0.45599999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>0.21</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>2.5</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24">
-        <v>0.3</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rapports/prix carte.xlsx
+++ b/Rapports/prix carte.xlsx
@@ -18,21 +18,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>Etude de prix</t>
-  </si>
-  <si>
     <t>Composants</t>
   </si>
   <si>
-    <t>Prix</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Résistances</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
     <t>R0,1, 2W</t>
   </si>
   <si>
-    <t>On considère le prix pour 500 et plus pièces commandées</t>
-  </si>
-  <si>
     <t>TOTAL Composants</t>
   </si>
   <si>
@@ -106,6 +94,18 @@
   </si>
   <si>
     <t>TOTAL Solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prix /1000 </t>
+  </si>
+  <si>
+    <t>Prix /1</t>
+  </si>
+  <si>
+    <t>Total /1000</t>
+  </si>
+  <si>
+    <t>Total /1</t>
   </si>
 </sst>
 </file>
@@ -136,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -230,23 +230,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,400 +603,562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="3">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:E22" si="0">PRODUCT(B2,D2)</f>
+        <v>0.78</v>
+      </c>
+      <c r="F2" s="3">
+        <f>SUM(C2*D2)</f>
+        <v>1.9500000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="B3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F22" si="1">SUM(C3*D3)</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.1</v>
       </c>
-      <c r="C5" s="4">
-        <v>39</v>
-      </c>
-      <c r="D5" s="4">
-        <f>PRODUCT(B5,C5)</f>
-        <v>3.9000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.01</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
         <v>0.3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C12" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.91</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.54</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.92</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45599999999999996</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.52</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7">
+        <f>SUM(E2:E22)</f>
+        <v>19.418000000000003</v>
+      </c>
+      <c r="F24" s="14">
+        <f>SUM(F2:F22)</f>
+        <v>32.475999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2">
-        <f>PRODUCT(B6,C6)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <f>PRODUCT(B7,C7)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <f>PRODUCT(B8,C8)</f>
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <f>PRODUCT(B9,C9)</f>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
-        <f>PRODUCT(B10,C10)</f>
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <f>PRODUCT(B11,C11)</f>
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <f>PRODUCT(B12,C12)</f>
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3.01</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <f>PRODUCT(B13,C13)</f>
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2">
-        <f>PRODUCT(B14,C14)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <f>PRODUCT(B15,C15)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2.54</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <f>PRODUCT(B16,C16)</f>
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2">
-        <f>PRODUCT(B17,C17)</f>
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <f>PRODUCT(B18,C18)</f>
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <f>PRODUCT(B19,C19)</f>
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <f>PRODUCT(B20,C20)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.49</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <f>PRODUCT(B21,C21)</f>
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.152</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2">
-        <f>PRODUCT(B22,C22)</f>
-        <v>0.45599999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <f>PRODUCT(B23,C23)</f>
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <f>PRODUCT(B24,C24)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <f>PRODUCT(B25,C25)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11">
-        <f>SUM(D5:D25)</f>
-        <v>28.678000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11">
-        <f>SUM(D27:D28)</f>
-        <v>40.677999999999997</v>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7">
+        <f>SUM(E24:E25)</f>
+        <v>27.418000000000003</v>
+      </c>
+      <c r="F27" s="14">
+        <f>SUM(F24+F25)</f>
+        <v>44.475999999999999</v>
       </c>
     </row>
   </sheetData>
